--- a/ours/zoom/results/mean.xlsx
+++ b/ours/zoom/results/mean.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,28 +487,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9775727552122633</v>
+        <v>0.9377782545980338</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5889120980096809</v>
+        <v>0.2845288622553432</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7677637721351945</v>
+        <v>0.5507849908526699</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8058449467214697</v>
+        <v>0.6080930522545248</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6839116388504636</v>
+        <v>0.3915652190601638</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8058449467214697</v>
+        <v>0.6080930522545248</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7832424266109721</v>
+        <v>0.6111535584266885</v>
       </c>
     </row>
     <row r="3">
@@ -518,28 +518,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8449561800301928</v>
+        <v>0.8094561999045345</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07159314735711796</v>
+        <v>0.05000465368636706</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2691355132148264</v>
+        <v>0.2102033980296676</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3492758580332486</v>
+        <v>0.2912400417589311</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1281886729804462</v>
+        <v>0.082860126944169</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3492758580332486</v>
+        <v>0.2911223947001076</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4582746636936553</v>
+        <v>0.4297304267954508</v>
       </c>
     </row>
     <row r="4">
@@ -549,91 +549,63 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7259681639985373</v>
+        <v>0.6459076889458734</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0265749806057464</v>
+        <v>0.01807013820630421</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1103021394598597</v>
+        <v>0.06478441732346676</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1744162505044679</v>
+        <v>0.1108522352884017</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03131998611719832</v>
+        <v>0.01382883410240363</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1744162505044679</v>
+        <v>0.1108522352884017</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3762715723021419</v>
+        <v>0.3319889135760887</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-1B</t>
+          <t>B-CoAtNet</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9419987140569189</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.8477917162142823</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.9116877013251578</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.9225697323355474</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.8869187997589864</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.920934756944455</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.8948952151356007</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-1B</t>
+          <t>B-CoAtNet</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.7085991043333799</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.3164966344759492</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.5482288197752871</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.5839987286557498</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.4146982179797761</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.5780690881964123</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.5125478694046646</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -642,399 +614,659 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5386761506896263</v>
+        <v>0.9052797697982438</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08264191580112744</v>
+        <v>0.6571715567243295</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2355767050876488</v>
+        <v>0.8112302676349421</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2885145821651728</v>
+        <v>0.8260847098173539</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1315330712022337</v>
+        <v>0.7262328579687964</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2831142524040585</v>
+        <v>0.8255242399711082</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3106590332453769</v>
+        <v>0.7812256632612865</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-3B</t>
+          <t>LLAMA-3.2-1B</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9908955675333824</v>
+        <v>0.6685836375065082</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9496495034069214</v>
+        <v>0.1931884387265869</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9775228919357219</v>
+        <v>0.4117865929589812</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9790211056392002</v>
+        <v>0.4610063182413968</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9643671967576362</v>
+        <v>0.2759027891209985</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9790211056392002</v>
+        <v>0.4575778121326027</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9702725354701519</v>
+        <v>0.4308860381165475</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-3B</t>
+          <t>LLAMA-3.2-1B</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8541690119774707</v>
+        <v>0.5656931080735536</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5674844063574022</v>
+        <v>0.02490129425936089</v>
       </c>
       <c r="E9" t="n">
-        <v>0.779008573747533</v>
+        <v>0.08499053201056171</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7971457797861049</v>
+        <v>0.1306989253827353</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6646374908816429</v>
+        <v>0.0306065391106635</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7950148524812886</v>
+        <v>0.1295281977264492</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7108267091674364</v>
+        <v>0.2952972011664572</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-3B</t>
+          <t>LLAMA-3.2-1B</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6117906266638883</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.2144200954034367</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.4780751589559052</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.5293357111056605</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.3186199834296372</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.5232116668700002</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.4131053610336625</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LLAMA-3.1-8B</t>
+          <t>LLAMA-3.2-1B</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9945109642602799</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.9730755219359888</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.9895932383232808</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.9902533746051404</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.981495769929979</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.9902533746051404</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.9837932430981343</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LLAMA-3.1-8B</t>
+          <t>LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8928626642144437</v>
+        <v>0.9579810922879232</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6808198077498847</v>
+        <v>0.8268390084964593</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8460606368091634</v>
+        <v>0.9231212846070288</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8599478405790572</v>
+        <v>0.9272710414228261</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7581182938752999</v>
+        <v>0.8682398996386187</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8577767772552017</v>
+        <v>0.9271498293016139</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7868412359821643</v>
+        <v>0.8924100503921912</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LLAMA-3.1-8B</t>
+          <t>LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6771008759917599</v>
+        <v>0.746250319380719</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2995040616966115</v>
+        <v>0.3850486972148978</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5732429966911194</v>
+        <v>0.6459239035149058</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6124781881562863</v>
+        <v>0.676253606783647</v>
       </c>
       <c r="G13" t="n">
-        <v>0.41539224721811</v>
+        <v>0.4934699493700161</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6066820164509952</v>
+        <v>0.6733552079597063</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4883024688441858</v>
+        <v>0.5656495082978084</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GPT-4o</t>
+          <t>LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9988514009748101</v>
+        <v>0.4219266958266418</v>
       </c>
       <c r="D14" t="n">
-        <v>0.990366285799283</v>
+        <v>0.08101962630453512</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9962650247505999</v>
+        <v>0.2676998095723446</v>
       </c>
       <c r="F14" t="n">
-        <v>0.996834333009373</v>
+        <v>0.3287801181848414</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9939742079191306</v>
+        <v>0.1321767988673624</v>
       </c>
       <c r="H14" t="n">
-        <v>0.996834333009373</v>
+        <v>0.3132660704498885</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9946088433870466</v>
+        <v>0.2514731610655884</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GPT-4o</t>
+          <t>LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.9836599906321307</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.9219307632761099</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.9623078019354908</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.9646110382502864</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.9370109631476693</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.9644571920964402</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.9527953769541203</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GPT-4o</t>
+          <t>LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.9313496958713608</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.7640424330126808</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.8808033384000729</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.8870848533992388</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.8108313427712475</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.8869459645103499</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.8476960644420207</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fine-tuned LLAMA-3.2-3B</t>
+          <t>LLAMA-3.1-8B</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9938799572430203</v>
+        <v>0.9763274208573919</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9555870297568945</v>
+        <v>0.8905914733567808</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9781623979246178</v>
+        <v>0.9517840869120108</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9794116633129969</v>
+        <v>0.9538774679185293</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9609957744475193</v>
+        <v>0.9146634774302327</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9792439001551022</v>
+        <v>0.9533977187022284</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9747334934999574</v>
+        <v>0.9334594471070863</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fine-tuned LLAMA-3.2-3B</t>
+          <t>LLAMA-3.1-8B</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="C18" t="n">
-        <v>0.964788460302838</v>
+        <v>0.8163397157745825</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8572487309799507</v>
+        <v>0.5204753685491963</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9326234876242531</v>
+        <v>0.75054624188893</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9365671381623494</v>
+        <v>0.7694911659664911</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8854755816206655</v>
+        <v>0.621637383422098</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9364871381623494</v>
+        <v>0.7653006319223941</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9110185956413944</v>
+        <v>0.6684075421618894</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>LLAMA-3.1-8B</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4683714911309649</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1072366863173837</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.3191825292297314</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.3729714443088217</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.1720446554950681</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.3640028913634363</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.2878040887241743</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>LLAMA-3.1-8B</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>LLAMA-3.1-8B</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>GPT-4o</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.997322068383197</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9759173780074945</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9884459206046031</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9889543684017479</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.9788704016597811</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.9888774453248248</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.9866197231953457</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>GPT-4o</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9798417948301391</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8959423775423744</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9504034640635428</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9522653076982726</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9141815875830561</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.9521153076982726</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.9378920861862567</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>GPT-4o</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.8247089125315263</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.5421456511903022</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.7351664163859535</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.7499088839516708</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.6148745778141076</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.7488272677919962</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.6834272818609144</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>GPT-4o</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>GPT-4o</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>6</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>Fine-tuned LLAMA-3.2-3B</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" t="n">
+      <c r="B27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9940644958339897</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.955378702389414</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9788616415609448</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9794513484016985</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.9620849798973605</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.9794513484016985</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.9747215991117019</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fine-tuned LLAMA-3.2-3B</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.9673020146457982</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8656809324424857</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.9384531221277205</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9396467377113399</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.8908413234510687</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.9394898146344168</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.9164914735441418</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Fine-tuned LLAMA-3.2-3B</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.8934229007866346</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.7224972254397241</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.8439311348115025</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.850724709894833</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.7667447063684021</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.8496786603036145</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.8079600631131792</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Fine-tuned LLAMA-3.2-3B</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>5</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.964788460302838</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8572487309799507</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9326234876242531</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9365671381623494</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.8854755816206655</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.9364871381623494</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.9110185956413944</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fine-tuned LLAMA-3.2-3B</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>6</v>
+      </c>
+      <c r="C31" t="n">
         <v>0.8771613936319937</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D31" t="n">
         <v>0.6692805449281938</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E31" t="n">
         <v>0.8259098719514086</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F31" t="n">
         <v>0.835150629592081</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G31" t="n">
         <v>0.7296029531300872</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H31" t="n">
         <v>0.833843185293085</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I31" t="n">
         <v>0.7732209692800938</v>
       </c>
     </row>

--- a/ours/zoom/results/mean.xlsx
+++ b/ours/zoom/results/mean.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,36 +576,64 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>B-CoAtNet</t>
+          <t>LLAMA-3.2-1B</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+        <v>0.1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9052797697982438</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6571715567243295</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8112302676349421</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8260847098173539</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.7262328579687964</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8255242399711082</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.7812256632612865</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>B-CoAtNet</t>
+          <t>LLAMA-3.2-1B</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+        <v>0.5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6685836375065082</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1931884387265869</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4117865929589812</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.4610063182413968</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.2759027891209985</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.4575778121326027</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.4308860381165475</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -614,660 +642,400 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9052797697982438</v>
+        <v>0.5656931080735536</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6571715567243295</v>
+        <v>0.02490129425936089</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8112302676349421</v>
+        <v>0.08499053201056171</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8260847098173539</v>
+        <v>0.1306989253827353</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7262328579687964</v>
+        <v>0.0306065391106635</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8255242399711082</v>
+        <v>0.1295281977264492</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7812256632612865</v>
+        <v>0.2952972011664572</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-1B</t>
+          <t>LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6685836375065082</v>
+        <v>0.9579810922879232</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1931884387265869</v>
+        <v>0.8268390084964593</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4117865929589812</v>
+        <v>0.9231212846070288</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4610063182413968</v>
+        <v>0.9272710414228261</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2759027891209985</v>
+        <v>0.8682398996386187</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4575778121326027</v>
+        <v>0.9271498293016139</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4308860381165475</v>
+        <v>0.8924100503921912</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-1B</t>
+          <t>LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5656931080735536</v>
+        <v>0.746250319380719</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02490129425936089</v>
+        <v>0.3850486972148978</v>
       </c>
       <c r="E9" t="n">
-        <v>0.08499053201056171</v>
+        <v>0.6459239035149058</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1306989253827353</v>
+        <v>0.676253606783647</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0306065391106635</v>
+        <v>0.4934699493700161</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1295281977264492</v>
+        <v>0.6733552079597063</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2952972011664572</v>
+        <v>0.5656495082978084</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-1B</t>
+          <t>LLAMA-3.2-3B</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4219266958266418</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.08101962630453512</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.2676998095723446</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.3287801181848414</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1321767988673624</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.3132660704498885</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.2514731610655884</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-1B</t>
+          <t>LLAMA-3.1-8B</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+        <v>0.1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9763274208573919</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8905914733567808</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9517840869120108</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9538774679185293</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9146634774302327</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9533977187022284</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9334594471070863</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-3B</t>
+          <t>LLAMA-3.1-8B</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9579810922879232</v>
+        <v>0.8163397157745825</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8268390084964593</v>
+        <v>0.5204753685491963</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9231212846070288</v>
+        <v>0.75054624188893</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9272710414228261</v>
+        <v>0.7694911659664911</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8682398996386187</v>
+        <v>0.621637383422098</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9271498293016139</v>
+        <v>0.7653006319223941</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8924100503921912</v>
+        <v>0.6684075421618894</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-3B</t>
+          <t>LLAMA-3.1-8B</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.746250319380719</v>
+        <v>0.4683714911309649</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3850486972148978</v>
+        <v>0.1072366863173837</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6459239035149058</v>
+        <v>0.3191825292297314</v>
       </c>
       <c r="F13" t="n">
-        <v>0.676253606783647</v>
+        <v>0.3729714443088217</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4934699493700161</v>
+        <v>0.1720446554950681</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6733552079597063</v>
+        <v>0.3640028913634363</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5656495082978084</v>
+        <v>0.2878040887241743</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-3B</t>
+          <t>GPT-4o</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4219266958266418</v>
+        <v>0.997322068383197</v>
       </c>
       <c r="D14" t="n">
-        <v>0.08101962630453512</v>
+        <v>0.9759173780074945</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2676998095723446</v>
+        <v>0.9884459206046031</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3287801181848414</v>
+        <v>0.9889543684017479</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1321767988673624</v>
+        <v>0.9788704016597811</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3132660704498885</v>
+        <v>0.9888774453248248</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2514731610655884</v>
+        <v>0.9866197231953457</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-3B</t>
+          <t>GPT-4o</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+        <v>0.5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9798417948301391</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8959423775423744</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9504034640635428</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9522653076982726</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9141815875830561</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.9521153076982726</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.9378920861862567</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LLAMA-3.2-3B</t>
+          <t>GPT-4o</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8247089125315263</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5421456511903022</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7351664163859535</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.7499088839516708</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.6148745778141076</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.7488272677919962</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.6834272818609144</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LLAMA-3.1-8B</t>
+          <t>LLAMA-3.2-3B (Fine-tuned)</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0.1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9763274208573919</v>
+        <v>0.9940644958339897</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8905914733567808</v>
+        <v>0.955378702389414</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9517840869120108</v>
+        <v>0.9788616415609448</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9538774679185293</v>
+        <v>0.9794513484016985</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9146634774302327</v>
+        <v>0.9620849798973605</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9533977187022284</v>
+        <v>0.9794513484016985</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9334594471070863</v>
+        <v>0.9747215991117019</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LLAMA-3.1-8B</t>
+          <t>LLAMA-3.2-3B (Fine-tuned)</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>0.5</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8163397157745825</v>
+        <v>0.9673020146457982</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5204753685491963</v>
+        <v>0.8656809324424857</v>
       </c>
       <c r="E18" t="n">
-        <v>0.75054624188893</v>
+        <v>0.9384531221277205</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7694911659664911</v>
+        <v>0.9396467377113399</v>
       </c>
       <c r="G18" t="n">
-        <v>0.621637383422098</v>
+        <v>0.8908413234510687</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7653006319223941</v>
+        <v>0.9394898146344168</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6684075421618894</v>
+        <v>0.9164914735441418</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LLAMA-3.1-8B</t>
+          <t>LLAMA-3.2-3B (Fine-tuned)</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4683714911309649</v>
+        <v>0.7929658443302487</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1072366863173837</v>
+        <v>0.4894074211225536</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3191825292297314</v>
+        <v>0.7096998716983871</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3729714443088217</v>
+        <v>0.722037756476669</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1720446554950681</v>
+        <v>0.5724936382892849</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3640028913634363</v>
+        <v>0.7201134204521268</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2878040887241743</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LLAMA-3.1-8B</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LLAMA-3.1-8B</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>6</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>GPT-4o</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.997322068383197</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.9759173780074945</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.9884459206046031</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.9889543684017479</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.9788704016597811</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.9888774453248248</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.9866197231953457</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>GPT-4o</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.9798417948301391</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.8959423775423744</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.9504034640635428</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.9522653076982726</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.9141815875830561</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.9521153076982726</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.9378920861862567</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>GPT-4o</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.8247089125315263</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.5421456511903022</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.7351664163859535</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.7499088839516708</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.6148745778141076</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.7488272677919962</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.6834272818609144</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>GPT-4o</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>5</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>GPT-4o</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>6</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Fine-tuned LLAMA-3.2-3B</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.9940644958339897</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.955378702389414</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.9788616415609448</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.9794513484016985</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.9620849798973605</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.9794513484016985</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.9747215991117019</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Fine-tuned LLAMA-3.2-3B</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.9673020146457982</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.8656809324424857</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.9384531221277205</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.9396467377113399</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.8908413234510687</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.9394898146344168</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.9164914735441418</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Fine-tuned LLAMA-3.2-3B</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.8934229007866346</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.7224972254397241</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.8439311348115025</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.850724709894833</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.7667447063684021</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.8496786603036145</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.8079600631131792</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Fine-tuned LLAMA-3.2-3B</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>5</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.964788460302838</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.8572487309799507</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.9326234876242531</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.9365671381623494</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.8854755816206655</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.9364871381623494</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.9110185956413944</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Fine-tuned LLAMA-3.2-3B</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>6</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.8771613936319937</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.6692805449281938</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.8259098719514086</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.835150629592081</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.7296029531300872</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.833843185293085</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.7732209692800938</v>
+        <v>0.6411866327264012</v>
       </c>
     </row>
   </sheetData>
